--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nlgn2-Nrxn1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nlgn2-Nrxn1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.986094666666667</v>
+        <v>0.9818413333333332</v>
       </c>
       <c r="H2">
-        <v>5.958284</v>
+        <v>2.945524</v>
       </c>
       <c r="I2">
-        <v>0.1054404613987739</v>
+        <v>0.0542081715590086</v>
       </c>
       <c r="J2">
-        <v>0.1054404613987739</v>
+        <v>0.05420817155900861</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.01189366666666667</v>
+        <v>0.006517333333333333</v>
       </c>
       <c r="N2">
-        <v>0.035681</v>
+        <v>0.019552</v>
       </c>
       <c r="O2">
-        <v>0.03169404731767329</v>
+        <v>0.004697037253424763</v>
       </c>
       <c r="P2">
-        <v>0.03169404731767329</v>
+        <v>0.004697037253424762</v>
       </c>
       <c r="Q2">
-        <v>0.02362194793377777</v>
+        <v>0.006398987249777778</v>
       </c>
       <c r="R2">
-        <v>0.212597531404</v>
+        <v>0.057590885248</v>
       </c>
       <c r="S2">
-        <v>0.003341834972770045</v>
+        <v>0.0002546178012527041</v>
       </c>
       <c r="T2">
-        <v>0.003341834972770045</v>
+        <v>0.0002546178012527041</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,51 +596,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.986094666666667</v>
+        <v>0.9818413333333332</v>
       </c>
       <c r="H3">
-        <v>5.958284</v>
+        <v>2.945524</v>
       </c>
       <c r="I3">
-        <v>0.1054404613987739</v>
+        <v>0.0542081715590086</v>
       </c>
       <c r="J3">
-        <v>0.1054404613987739</v>
+        <v>0.05420817155900861</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.3633713333333333</v>
+        <v>0.01189366666666667</v>
       </c>
       <c r="N3">
-        <v>1.090114</v>
+        <v>0.035681</v>
       </c>
       <c r="O3">
-        <v>0.9683059526823267</v>
+        <v>0.008571756661182945</v>
       </c>
       <c r="P3">
-        <v>0.9683059526823267</v>
+        <v>0.008571756661182945</v>
       </c>
       <c r="Q3">
-        <v>0.7216898671528889</v>
+        <v>0.01167769353822222</v>
       </c>
       <c r="R3">
-        <v>6.495208804376</v>
+        <v>0.105099241844</v>
       </c>
       <c r="S3">
-        <v>0.1020986264260039</v>
+        <v>0.0004646592556514799</v>
       </c>
       <c r="T3">
-        <v>0.1020986264260039</v>
+        <v>0.0004646592556514799</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.968050000000002</v>
+        <v>0.9818413333333332</v>
       </c>
       <c r="H4">
-        <v>29.90415</v>
+        <v>2.945524</v>
       </c>
       <c r="I4">
-        <v>0.5291972275470834</v>
+        <v>0.0542081715590086</v>
       </c>
       <c r="J4">
-        <v>0.5291972275470833</v>
+        <v>0.05420817155900861</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01189366666666667</v>
+        <v>1.369130333333333</v>
       </c>
       <c r="N4">
-        <v>0.035681</v>
+        <v>4.107391</v>
       </c>
       <c r="O4">
-        <v>0.03169404731767329</v>
+        <v>0.9867312060853923</v>
       </c>
       <c r="P4">
-        <v>0.03169404731767329</v>
+        <v>0.9867312060853922</v>
       </c>
       <c r="Q4">
-        <v>0.1185566640166667</v>
+        <v>1.344268751987111</v>
       </c>
       <c r="R4">
-        <v>1.06700997615</v>
+        <v>12.098418767884</v>
       </c>
       <c r="S4">
-        <v>0.01677240197025878</v>
+        <v>0.05348889450210442</v>
       </c>
       <c r="T4">
-        <v>0.01677240197025878</v>
+        <v>0.05348889450210442</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.968050000000002</v>
+        <v>9.968049999999998</v>
       </c>
       <c r="H5">
-        <v>29.90415</v>
+        <v>29.90414999999999</v>
       </c>
       <c r="I5">
-        <v>0.5291972275470834</v>
+        <v>0.5503432643992467</v>
       </c>
       <c r="J5">
-        <v>0.5291972275470833</v>
+        <v>0.5503432643992469</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,33 +738,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3633713333333333</v>
+        <v>0.006517333333333333</v>
       </c>
       <c r="N5">
-        <v>1.090114</v>
+        <v>0.019552</v>
       </c>
       <c r="O5">
-        <v>0.9683059526823267</v>
+        <v>0.004697037253424763</v>
       </c>
       <c r="P5">
-        <v>0.9683059526823267</v>
+        <v>0.004697037253424762</v>
       </c>
       <c r="Q5">
-        <v>3.622103619233334</v>
+        <v>0.06496510453333332</v>
       </c>
       <c r="R5">
-        <v>32.59893257310001</v>
+        <v>0.5846859407999999</v>
       </c>
       <c r="S5">
-        <v>0.5124248255768247</v>
+        <v>0.002584982815054656</v>
       </c>
       <c r="T5">
-        <v>0.5124248255768246</v>
+        <v>0.002584982815054656</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.882027333333333</v>
+        <v>9.968049999999998</v>
       </c>
       <c r="H6">
-        <v>20.646082</v>
+        <v>29.90414999999999</v>
       </c>
       <c r="I6">
-        <v>0.3653623110541427</v>
+        <v>0.5503432643992467</v>
       </c>
       <c r="J6">
-        <v>0.3653623110541426</v>
+        <v>0.5503432643992469</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,27 +806,27 @@
         <v>0.035681</v>
       </c>
       <c r="O6">
-        <v>0.03169404731767329</v>
+        <v>0.008571756661182945</v>
       </c>
       <c r="P6">
-        <v>0.03169404731767329</v>
+        <v>0.008571756661182945</v>
       </c>
       <c r="Q6">
-        <v>0.08185253909355554</v>
+        <v>0.1185566640166666</v>
       </c>
       <c r="R6">
-        <v>0.7366728518419999</v>
+        <v>1.06700997615</v>
       </c>
       <c r="S6">
-        <v>0.01157981037464446</v>
+        <v>0.00471740854255141</v>
       </c>
       <c r="T6">
-        <v>0.01157981037464446</v>
+        <v>0.004717408542551411</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,46 +844,232 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.882027333333333</v>
+        <v>9.968049999999998</v>
       </c>
       <c r="H7">
-        <v>20.646082</v>
+        <v>29.90414999999999</v>
       </c>
       <c r="I7">
-        <v>0.3653623110541427</v>
+        <v>0.5503432643992467</v>
       </c>
       <c r="J7">
-        <v>0.3653623110541426</v>
+        <v>0.5503432643992469</v>
       </c>
       <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.369130333333333</v>
+      </c>
+      <c r="N7">
+        <v>4.107391</v>
+      </c>
+      <c r="O7">
+        <v>0.9867312060853923</v>
+      </c>
+      <c r="P7">
+        <v>0.9867312060853922</v>
+      </c>
+      <c r="Q7">
+        <v>13.64755961918333</v>
+      </c>
+      <c r="R7">
+        <v>122.82803657265</v>
+      </c>
+      <c r="S7">
+        <v>0.5430408730416407</v>
+      </c>
+      <c r="T7">
+        <v>0.5430408730416407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>7.162531666666666</v>
+      </c>
+      <c r="H8">
+        <v>21.487595</v>
+      </c>
+      <c r="I8">
+        <v>0.3954485640417445</v>
+      </c>
+      <c r="J8">
+        <v>0.3954485640417446</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M7">
-        <v>0.3633713333333333</v>
-      </c>
-      <c r="N7">
-        <v>1.090114</v>
-      </c>
-      <c r="O7">
-        <v>0.9683059526823267</v>
-      </c>
-      <c r="P7">
-        <v>0.9683059526823267</v>
-      </c>
-      <c r="Q7">
-        <v>2.500731448149778</v>
-      </c>
-      <c r="R7">
-        <v>22.506583033348</v>
-      </c>
-      <c r="S7">
-        <v>0.3537825006794982</v>
-      </c>
-      <c r="T7">
-        <v>0.3537825006794981</v>
+      <c r="M8">
+        <v>0.006517333333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.019552</v>
+      </c>
+      <c r="O8">
+        <v>0.004697037253424763</v>
+      </c>
+      <c r="P8">
+        <v>0.004697037253424762</v>
+      </c>
+      <c r="Q8">
+        <v>0.04668060638222222</v>
+      </c>
+      <c r="R8">
+        <v>0.42012545744</v>
+      </c>
+      <c r="S8">
+        <v>0.001857436637117402</v>
+      </c>
+      <c r="T8">
+        <v>0.001857436637117402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>7.162531666666666</v>
+      </c>
+      <c r="H9">
+        <v>21.487595</v>
+      </c>
+      <c r="I9">
+        <v>0.3954485640417445</v>
+      </c>
+      <c r="J9">
+        <v>0.3954485640417446</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.01189366666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.035681</v>
+      </c>
+      <c r="O9">
+        <v>0.008571756661182945</v>
+      </c>
+      <c r="P9">
+        <v>0.008571756661182945</v>
+      </c>
+      <c r="Q9">
+        <v>0.08518876413277776</v>
+      </c>
+      <c r="R9">
+        <v>0.7666988771949999</v>
+      </c>
+      <c r="S9">
+        <v>0.003389688862980054</v>
+      </c>
+      <c r="T9">
+        <v>0.003389688862980054</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.162531666666666</v>
+      </c>
+      <c r="H10">
+        <v>21.487595</v>
+      </c>
+      <c r="I10">
+        <v>0.3954485640417445</v>
+      </c>
+      <c r="J10">
+        <v>0.3954485640417446</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.369130333333333</v>
+      </c>
+      <c r="N10">
+        <v>4.107391</v>
+      </c>
+      <c r="O10">
+        <v>0.9867312060853923</v>
+      </c>
+      <c r="P10">
+        <v>0.9867312060853922</v>
+      </c>
+      <c r="Q10">
+        <v>9.806439368293889</v>
+      </c>
+      <c r="R10">
+        <v>88.25795431464499</v>
+      </c>
+      <c r="S10">
+        <v>0.3902014385416471</v>
+      </c>
+      <c r="T10">
+        <v>0.3902014385416471</v>
       </c>
     </row>
   </sheetData>
